--- a/Data/Mult/weather_ks.xlsx
+++ b/Data/Mult/weather_ks.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{E55E4BDA-FD53-444D-BC34-C48A7719BF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8F255AD-2E19-461C-97E0-D58A9EFD450A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{DA0D389C-A655-41E7-BCB1-64293C4C9ADA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DA0D389C-A655-41E7-BCB1-64293C4C9ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="ks_2013" sheetId="1" r:id="rId1"/>
@@ -119,6 +119,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8C9C0A-3606-472A-90C0-8CAB8FE9CAC6}">
   <dimension ref="A1:J366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12167,7 +12171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F716E4-BD1E-4FDE-BD72-00DF23CD05BF}">
   <dimension ref="A1:J367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
